--- a/static/useful-files/2022_course-timetable.xlsx
+++ b/static/useful-files/2022_course-timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charliejhadley/Github/eng7218_data-science-for-healthcare-applications_bcu-masters/static/useful-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2161554D-C7CE-4E4A-B5C9-11029AD21568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D381794-B670-8743-A458-FC6647BE2281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25920" yWindow="500" windowWidth="25280" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="880" windowWidth="35300" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sheet" sheetId="3" r:id="rId1"/>
@@ -364,21 +364,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,11 +387,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,38 +408,35 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,7 +729,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -761,690 +753,678 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28">
+      <c r="B2" s="25"/>
+      <c r="C2" s="27">
         <v>44823</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>44823</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="16">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4"/>
+      <c r="I2" s="13">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
-      <c r="D3" s="14">
+      <c r="D3" s="4">
         <v>44823</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="15">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="12"/>
+      <c r="I3" s="12">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27">
         <v>44830</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="4">
         <v>44830</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="15">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="4"/>
+      <c r="I4" s="12">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
-      <c r="D5" s="14">
+      <c r="D5" s="4">
         <v>44830</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="15">
-        <v>2</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="4"/>
+      <c r="I5" s="12">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28">
+      <c r="B6" s="25"/>
+      <c r="C6" s="27">
         <v>44837</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="4">
         <v>44837</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="15">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="4"/>
+      <c r="I6" s="12">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="14">
+      <c r="D7" s="4">
         <v>44837</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="15">
-        <v>2</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="4"/>
+      <c r="I7" s="12">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="29">
+      <c r="B8" s="25"/>
+      <c r="C8" s="28">
         <v>44844</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="4">
         <v>44844</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="15">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="4"/>
+      <c r="I8" s="12">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
-      <c r="D9" s="14">
+      <c r="D9" s="4">
         <v>44844</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="15">
-        <v>2</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="4"/>
+      <c r="I9" s="12">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="29">
+      <c r="B10" s="25"/>
+      <c r="C10" s="28">
         <v>44851</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="4">
         <v>44851</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="15">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="4"/>
+      <c r="I10" s="12">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="14">
+      <c r="D11" s="4">
         <v>44851</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="15">
-        <v>2</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="4"/>
+      <c r="I11" s="12">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="33">
+      <c r="B12" s="25"/>
+      <c r="C12" s="29">
         <v>44858</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="4">
         <v>44858</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="15">
-        <v>2</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="4"/>
+      <c r="I12" s="12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="14">
+      <c r="C13" s="26"/>
+      <c r="D13" s="4">
         <v>44858</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="15">
-        <v>2</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="13"/>
+      <c r="I13" s="12">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>44865</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="4">
         <v>44865</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="24" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="15">
-        <v>2</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="13"/>
+      <c r="I14" s="12">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="14">
+      <c r="D15" s="4">
         <v>44865</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="24" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="15">
-        <v>2</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="13"/>
+      <c r="I15" s="12">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="30"/>
-      <c r="C16" s="31">
+      <c r="C16" s="32">
         <v>44872</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="4">
         <v>44872</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="24" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="15">
-        <v>2</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="13"/>
+      <c r="I16" s="12">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="14">
+      <c r="D17" s="4">
         <v>44872</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="20" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="15">
-        <v>2</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="13"/>
+      <c r="I17" s="12">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="30"/>
-      <c r="C18" s="32">
+      <c r="C18" s="31">
         <v>44879</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="4">
         <v>44879</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="24" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="15">
-        <v>2</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="13"/>
+      <c r="I18" s="12">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="14">
+      <c r="D19" s="4">
         <v>44879</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="24" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="15">
-        <v>2</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="13"/>
+      <c r="I19" s="12">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="30"/>
-      <c r="C20" s="32">
+      <c r="C20" s="31">
         <v>44886</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="4">
         <v>44886</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="24" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="15">
-        <v>2</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="13"/>
+      <c r="I20" s="12">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="14">
+      <c r="D21" s="4">
         <v>44886</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="24" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="15">
-        <v>2</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="13"/>
+      <c r="I21" s="12">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="30"/>
-      <c r="C22" s="32">
+      <c r="C22" s="31">
         <v>44893</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="4">
         <v>44893</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="15">
-        <v>2</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="13"/>
+      <c r="I22" s="12">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="14">
+      <c r="D23" s="4">
         <v>44893</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="15">
-        <v>2</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="13"/>
+      <c r="I23" s="12">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15">
         <v>44900</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="4">
         <v>44900</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="15">
-        <v>2</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="6"/>
+      <c r="I24" s="12">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B16:B17"/>
@@ -1455,24 +1435,36 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1705,6 +1697,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F478A89F-201D-440E-9AF6-E7E9ABB1CC4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{474EAD43-4C3C-4978-B7BC-C02C4D5E2C11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="7f1d951a-dc73-4a5c-a87b-e3fb636507d3"/>
@@ -1717,14 +1717,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F478A89F-201D-440E-9AF6-E7E9ABB1CC4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
